--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zaliczenie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA68A2B-FAE1-4239-9B3A-438A73EBB53F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58A68B-035D-4580-9644-5577033BDCF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Lp</t>
   </si>
   <si>
-    <t>Kroki wstępne</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kroki </t>
   </si>
   <si>
@@ -76,6 +73,111 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>Logowanie do poczty e-mail</t>
+  </si>
+  <si>
+    <t>Tytuł</t>
+  </si>
+  <si>
+    <t>Warunki początkowe</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/</t>
+  </si>
+  <si>
+    <t>Test_01a</t>
+  </si>
+  <si>
+    <t>Zalogowanie się na stronę</t>
+  </si>
+  <si>
+    <t>Przeglądarka: Chrome Strona https://www.saucedemo.com/</t>
+  </si>
+  <si>
+    <t>Użytkownik loguje się na stronę za pomocą dostępnych loginów</t>
+  </si>
+  <si>
+    <t>1. W pole "Username" wpisać dostępny login z listy na dole strony "Accepted usernames"  2. W pole "Password" wpisać hasło z listy na dole strony "Password for all users"</t>
+  </si>
+  <si>
+    <t>Użytkownik zostaje przekierowany na stronę wyboru produktów</t>
+  </si>
+  <si>
+    <t>Kryteria akceptacji</t>
+  </si>
+  <si>
+    <t>Na szarym pasku użytkownik widzi napis "Products"</t>
+  </si>
+  <si>
+    <t>Test_01b</t>
+  </si>
+  <si>
+    <t>Dodanie produktu do koszyka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Użytkownik jest zalogowany na stronie https://www.saucedemo.com/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kliknąć "ADD TO CART" przy pierwszym produkcie </t>
+  </si>
+  <si>
+    <t>Przy ikonie koszyka w prawym górnym rogu pojawia się czerwone kółko z liczbą produktów w koszyku</t>
+  </si>
+  <si>
+    <t>W czerwonym kółku na koszyku widzę cyfrę 1 odpowiadającą 1 produktowi w koszyku</t>
+  </si>
+  <si>
+    <t>Test_01c</t>
+  </si>
+  <si>
+    <t>Przejście do koszyka</t>
+  </si>
+  <si>
+    <t>Użytkownik jest zalogowany na stronie https://www.saucedemo.com/ i posiada produkty w koszyku</t>
+  </si>
+  <si>
+    <t>1. Kliknąć ikonę koszyka w prawym górnym rogu</t>
+  </si>
+  <si>
+    <t>W koszyku posiadam wcześniej dodany produkt</t>
+  </si>
+  <si>
+    <t>Na szarym pasku widzę napis "Your Cart"</t>
+  </si>
+  <si>
+    <t>Test_01d</t>
+  </si>
+  <si>
+    <t>Powrót do sklepu</t>
+  </si>
+  <si>
+    <t>Użytkownik ma stronę z otwartym koszykiem</t>
+  </si>
+  <si>
+    <t>1. Kliknąć na przycisk "CONTINUE SHOPPING"</t>
+  </si>
+  <si>
+    <t>Użytkownik zostaje przekierowany na stronę wyboru produktów (sklepu)</t>
+  </si>
+  <si>
+    <t>Test_01e</t>
+  </si>
+  <si>
+    <t>Usunięcie produktu</t>
+  </si>
+  <si>
+    <t>Użytkownik ma otwartą stronę ze sklepem</t>
+  </si>
+  <si>
+    <t>1. Kliknąć "REMOVE" przy wcześniej dodanym produkcie</t>
+  </si>
+  <si>
+    <t>Przy ikonie koszyka w prawym górnym rogu czerwone kółko powinno zniknąć</t>
+  </si>
+  <si>
+    <t>Czerwone kólko przy ikonie koszyka zniknęło co oznacza, że produkt został usunięty i w koszyku nie ma żadnych produktów</t>
   </si>
 </sst>
 </file>
@@ -115,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -166,11 +268,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -178,15 +293,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,22 +640,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,19 +666,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,59 +690,184 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>